--- a/Selenium_Test_Cases.xlsx
+++ b/Selenium_Test_Cases.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Search input echoes text into the AI response area on submit.</t>
+          <t>Search input produces a valid AI response when submitted.</t>
         </is>
       </c>
     </row>
